--- a/NOVI_Relacioni_dijagram.xlsx
+++ b/NOVI_Relacioni_dijagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anita\Desktop\fagz\III godina\VI semestar\SBP\II faza - DedaMrazovaRadionica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5026AF32-4BCA-4F2B-90BE-200D0B761AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DC70D-A956-4E77-90C8-279FC77FE366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14808" windowHeight="7812" tabRatio="211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
   <si>
     <t>DETE</t>
   </si>
@@ -268,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,15 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -402,9 +393,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -414,8 +404,8 @@
       <alignment horizontal="fill" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -758,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AJ73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,7 +769,7 @@
     <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +808,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -873,7 +863,7 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -910,7 +900,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -949,7 +939,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -998,7 +988,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1035,14 +1025,14 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1074,20 +1064,22 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1118,8 +1110,9 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1156,7 +1149,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1195,17 +1188,17 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E12" s="3"/>
@@ -1240,7 +1233,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1277,7 +1270,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1309,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1322,7 @@
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1365,7 +1358,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1685,7 +1678,7 @@
       <c r="A24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1819,7 +1812,7 @@
       <c r="F27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -1831,13 +1824,13 @@
       <c r="J27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="M27" s="14" t="s">
         <v>49</v>
       </c>
       <c r="N27" s="3"/>
@@ -1985,7 +1978,7 @@
       <c r="AI30" s="3"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2073,7 +2066,7 @@
       <c r="D33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="14" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="3"/>
@@ -2196,7 +2189,7 @@
       <c r="D36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="3"/>
@@ -2319,13 +2312,13 @@
       <c r="D39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G39" s="19"/>
+      <c r="G39" s="18"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2435,7 +2428,7 @@
       <c r="A42" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="3"/>
@@ -2594,8 +2587,8 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2633,8 +2626,8 @@
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2714,8 +2707,8 @@
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2753,8 +2746,8 @@
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2834,8 +2827,8 @@
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2873,8 +2866,8 @@
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2954,8 +2947,8 @@
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2994,8 +2987,8 @@
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3076,8 +3069,8 @@
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3115,8 +3108,8 @@
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3232,7 +3225,7 @@
       <c r="AI61" s="3"/>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B62" s="3"/>
